--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>377240</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>上投摩根新兴动力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.24</t>
+          <t>56.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>960007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>上投摩根新兴动力混合H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>96.24</t>
+          <t>56.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>377240</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根新兴动力混合A</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>27.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>009591</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>42.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001795</t>
+          <t>160527</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.29</t>
+          <t>23.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960007</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根新兴动力混合H</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009591</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>89.46</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160527</t>
+          <t>160528</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>89.22</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160528</t>
+          <t>001795</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+          <t>上投摩根文体休闲灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.58</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>008326</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>西藏东财中证通信技术主题指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>008327</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+          <t>西藏东财中证通信技术主题指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008326</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数A</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,25 +1090,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008327</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西藏东财中证通信技术主题指数C</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1694,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1710,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1726,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1789,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1805,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1821,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1837,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1884,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1900,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -1821,14 +1916,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
@@ -1837,14 +1932,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="7">
@@ -1853,13 +1948,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,433 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>377240</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4756</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4756</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4985</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009591</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>42.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4382</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160527</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8959</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.78</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2043</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0816</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160528</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001795</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -893,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -954,177 +666,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.45</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4404</t>
+          <t>0.3761</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1313</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1085</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0805</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1139,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1200,254 +760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.88</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.56</t>
+          <t>99.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3467</t>
+          <t>0.5083</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009591</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9891</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1295</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1048</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0968</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0867</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1522,26 +854,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.56</t>
+          <t>18.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0385</t>
+          <t>0.6715</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +908,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1616,26 +948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>26.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>99.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6715</t>
+          <t>1.0385</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1670,7 +1002,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1710,26 +1042,254 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>26.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>99.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5083</t>
+          <t>1.3467</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,7 +1324,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1804,25 +1364,177 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>99.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3761</t>
+          <t>1.4404</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1837,144 +1549,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.51</v>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.67</v>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.04</v>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.25</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.25</v>
       </c>
     </row>
@@ -666,22 +683,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>99.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3761</t>
+          <t>0.3121</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -760,22 +777,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5083</t>
+          <t>0.3761</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -854,26 +871,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>99.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6715</t>
+          <t>0.5083</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +925,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -948,26 +965,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.56</t>
+          <t>18.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0385</t>
+          <t>0.6715</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -976,6 +993,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1297,7 +1408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1543,7 +1654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300136-信维通信.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.04</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,470 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1136,216 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3121</t>
+          <t>0.3866</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -777,22 +1420,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>99.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3761</t>
+          <t>0.3121</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -871,22 +1514,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>14.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5083</t>
+          <t>0.3761</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -965,26 +1608,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.45</t>
+          <t>99.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6715</t>
+          <t>0.5083</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1662,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1059,26 +1702,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.56</t>
+          <t>18.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.59</t>
+          <t>99.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0385</t>
+          <t>0.6715</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1087,6 +1730,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1408,7 +2145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1652,440 +2389,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>377240</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4756</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根新兴动力混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4756</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4985</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009591</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>42.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4382</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160527</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8959</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008326</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2043</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008327</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>西藏东财中证通信技术主题指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>96.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0816</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160528</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001795</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>